--- a/data/trans_orig/P14A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A06-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79E80A29-20C8-47E7-8CBF-5AA709C7929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDAE459-AC03-492F-9E17-A07447D94250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1447AE7-0B25-4644-BB55-6A86DD152ECC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1D752A3-60F5-4C10-800B-ECC3921EE7C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="159">
   <si>
     <t>Población que recibe medicación o terapia por úlcera de estómago en 2012 (Tasa respuesta: 1,17%)</t>
   </si>
@@ -114,13 +114,13 @@
     <t>86,04%</t>
   </si>
   <si>
-    <t>50,79%</t>
+    <t>43,12%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>39,08%</t>
+    <t>39,45%</t>
   </si>
   <si>
     <t>36,56%</t>
@@ -129,13 +129,13 @@
     <t>13,96%</t>
   </si>
   <si>
-    <t>49,21%</t>
+    <t>56,88%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>60,92%</t>
+    <t>60,55%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -144,7 +144,7 @@
     <t>73,93%</t>
   </si>
   <si>
-    <t>40,37%</t>
+    <t>40,05%</t>
   </si>
   <si>
     <t>91,47%</t>
@@ -153,16 +153,16 @@
     <t>92,54%</t>
   </si>
   <si>
-    <t>65,18%</t>
+    <t>64,15%</t>
   </si>
   <si>
     <t>83,24%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>26,07%</t>
@@ -171,22 +171,22 @@
     <t>8,53%</t>
   </si>
   <si>
-    <t>59,63%</t>
+    <t>59,95%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>34,82%</t>
+    <t>35,85%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -195,49 +195,49 @@
     <t>63,88%</t>
   </si>
   <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>43,19%</t>
+    <t>42,7%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>56,81%</t>
+    <t>57,3%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -246,103 +246,103 @@
     <t>74,21%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>39,5%</t>
+    <t>38,47%</t>
   </si>
   <si>
     <t>75,71%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>60,5%</t>
+    <t>61,53%</t>
   </si>
   <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -369,7 +369,10 @@
     <t>49,2%</t>
   </si>
   <si>
-    <t>18,01%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>26,7%</t>
@@ -387,7 +390,10 @@
     <t>50,8%</t>
   </si>
   <si>
-    <t>81,99%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
   </si>
   <si>
     <t>54,5%</t>
@@ -402,7 +408,7 @@
     <t>82,48%</t>
   </si>
   <si>
-    <t>48,53%</t>
+    <t>46,18%</t>
   </si>
   <si>
     <t>45,5%</t>
@@ -417,7 +423,7 @@
     <t>17,52%</t>
   </si>
   <si>
-    <t>51,47%</t>
+    <t>53,82%</t>
   </si>
   <si>
     <t>43,3%</t>
@@ -426,13 +432,13 @@
     <t>87,58%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>56,12%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>43,51%</t>
+    <t>42,44%</t>
   </si>
   <si>
     <t>56,7%</t>
@@ -441,13 +447,13 @@
     <t>12,42%</t>
   </si>
   <si>
-    <t>56,94%</t>
+    <t>43,88%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>56,49%</t>
+    <t>57,56%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -462,52 +468,52 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E192F2F-B8EF-422A-BD6D-DA8F7DE97E13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6EF5DD-F417-49CA-A62D-4E22BA8C1EE8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1982,7 +1988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F61A39-A22C-4BED-AB80-45188AF96D31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390A7A0A-53D5-46FF-94B5-B731CDBC9B30}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2279,7 +2285,7 @@
         <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2300,13 @@
         <v>1049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -2309,10 +2315,10 @@
         <v>3972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -2324,13 +2330,13 @@
         <v>5021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,10 +2404,10 @@
         <v>3472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2416,7 +2422,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2428,10 +2434,10 @@
         <v>13649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2449,13 +2455,13 @@
         <v>2899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2470,7 +2476,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2479,13 +2485,13 @@
         <v>2899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,7 +2559,7 @@
         <v>865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -2568,10 +2574,10 @@
         <v>6945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2583,10 +2589,10 @@
         <v>7810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2604,7 +2610,7 @@
         <v>1132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -2619,13 +2625,13 @@
         <v>985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2634,13 +2640,13 @@
         <v>2117</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -2726,7 +2732,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -2741,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -2765,7 +2771,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2780,7 +2786,7 @@
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2795,7 +2801,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2869,13 @@
         <v>10169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -2878,13 +2884,13 @@
         <v>29309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2893,13 +2899,13 @@
         <v>39479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,10 +2923,10 @@
         <v>107</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2929,13 +2935,13 @@
         <v>4957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2944,13 +2950,13 @@
         <v>10036</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A06-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A06-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADDAE459-AC03-492F-9E17-A07447D94250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{823A70C2-106B-463B-AB58-F699F1B9151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1D752A3-60F5-4C10-800B-ECC3921EE7C0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B18004A0-E593-4930-A0FB-80C6799DC62E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="155">
   <si>
     <t>Población que recibe medicación o terapia por úlcera de estómago en 2012 (Tasa respuesta: 1,17%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -105,7 +105,7 @@
     <t>28,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>63,44%</t>
@@ -114,13 +114,13 @@
     <t>86,04%</t>
   </si>
   <si>
-    <t>43,12%</t>
+    <t>42,76%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>39,45%</t>
+    <t>48,21%</t>
   </si>
   <si>
     <t>36,56%</t>
@@ -129,115 +129,115 @@
     <t>13,96%</t>
   </si>
   <si>
-    <t>56,88%</t>
+    <t>57,24%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>64,15%</t>
+    <t>61,32%</t>
   </si>
   <si>
     <t>83,24%</t>
   </si>
   <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>35,85%</t>
+    <t>38,68%</t>
   </si>
   <si>
     <t>16,76%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>63,88%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
   </si>
   <si>
     <t>87,46%</t>
   </si>
   <si>
-    <t>42,7%</t>
+    <t>42,82%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>36,12%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
   </si>
   <si>
     <t>12,54%</t>
   </si>
   <si>
-    <t>57,3%</t>
+    <t>57,18%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -246,109 +246,97 @@
     <t>74,21%</t>
   </si>
   <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>41,81%</t>
   </si>
   <si>
     <t>77,1%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
     <t>75,71%</t>
   </si>
   <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
+    <t>58,19%</t>
   </si>
   <si>
     <t>22,9%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
     <t>24,29%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>86,14%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>77,91%</t>
   </si>
   <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
   </si>
   <si>
     <t>13,86%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por úlcera de estómago en 2015 (Tasa respuesta: 0,69%)</t>
+    <t>Población que recibe medicación o terapia por úlcera de estómago en 2016 (Tasa respuesta: 0,69%)</t>
   </si>
   <si>
     <t>—%</t>
@@ -363,16 +351,16 @@
     <t>33,31%</t>
   </si>
   <si>
-    <t>81,74%</t>
+    <t>84,1%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
   </si>
   <si>
     <t>26,7%</t>
@@ -384,16 +372,16 @@
     <t>66,69%</t>
   </si>
   <si>
-    <t>18,26%</t>
+    <t>15,9%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
   </si>
   <si>
     <t>54,5%</t>
@@ -408,7 +396,7 @@
     <t>82,48%</t>
   </si>
   <si>
-    <t>46,18%</t>
+    <t>55,2%</t>
   </si>
   <si>
     <t>45,5%</t>
@@ -423,7 +411,7 @@
     <t>17,52%</t>
   </si>
   <si>
-    <t>53,82%</t>
+    <t>44,8%</t>
   </si>
   <si>
     <t>43,3%</t>
@@ -432,13 +420,13 @@
     <t>87,58%</t>
   </si>
   <si>
-    <t>56,12%</t>
+    <t>44,51%</t>
   </si>
   <si>
     <t>78,67%</t>
   </si>
   <si>
-    <t>42,44%</t>
+    <t>39,64%</t>
   </si>
   <si>
     <t>56,7%</t>
@@ -447,13 +435,13 @@
     <t>12,42%</t>
   </si>
   <si>
-    <t>43,88%</t>
+    <t>55,49%</t>
   </si>
   <si>
     <t>21,33%</t>
   </si>
   <si>
-    <t>57,56%</t>
+    <t>60,36%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -468,7 +456,7 @@
     <t>14,51%</t>
   </si>
   <si>
-    <t>33,38%</t>
+    <t>32,28%</t>
   </si>
   <si>
     <t>88,23%</t>
@@ -477,43 +465,43 @@
     <t>85,53%</t>
   </si>
   <si>
-    <t>67,4%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>79,73%</t>
   </si>
   <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>66,62%</t>
+    <t>67,72%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
   </si>
 </sst>
 </file>
@@ -925,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6EF5DD-F417-49CA-A62D-4E22BA8C1EE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC70FC7-8EC1-4CAE-B2F2-22111C5CEF40}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1675,7 +1663,7 @@
         <v>69</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -1684,10 +1672,10 @@
         <v>9326</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -1699,13 +1687,13 @@
         <v>17560</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1720,13 +1708,13 @@
         <v>2862</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1735,13 +1723,13 @@
         <v>2771</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -1750,13 +1738,13 @@
         <v>5633</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1824,13 +1812,13 @@
         <v>28144</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -1839,13 +1827,13 @@
         <v>36275</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -1854,13 +1842,13 @@
         <v>64420</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1875,13 +1863,13 @@
         <v>12428</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -1890,13 +1878,13 @@
         <v>5839</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M20" s="7">
         <v>17</v>
@@ -1905,13 +1893,13 @@
         <v>18267</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,7 +1955,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +1976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390A7A0A-53D5-46FF-94B5-B731CDBC9B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA78693D-C175-4140-AB2C-D22FC43309EC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2005,7 +1993,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2110,39 +2098,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,39 +2143,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,39 +2188,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,10 +2237,10 @@
         <v>2879</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -2264,13 +2252,13 @@
         <v>1984</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -2279,13 +2267,13 @@
         <v>4863</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2288,13 @@
         <v>1049</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -2315,10 +2303,10 @@
         <v>3972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -2330,13 +2318,13 @@
         <v>5021</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,10 +2392,10 @@
         <v>3472</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -2422,7 +2410,7 @@
         <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>15</v>
@@ -2434,10 +2422,10 @@
         <v>13649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2455,13 +2443,13 @@
         <v>2899</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2476,7 +2464,7 @@
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -2485,13 +2473,13 @@
         <v>2899</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,7 +2547,7 @@
         <v>865</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
@@ -2574,10 +2562,10 @@
         <v>6945</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2589,10 +2577,10 @@
         <v>7810</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2610,7 +2598,7 @@
         <v>1132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -2625,13 +2613,13 @@
         <v>985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2640,13 +2628,13 @@
         <v>2117</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,7 +2705,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -2732,7 +2720,7 @@
         <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>15</v>
@@ -2747,7 +2735,7 @@
         <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>15</v>
@@ -2771,7 +2759,7 @@
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2786,7 +2774,7 @@
         <v>19</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2801,7 +2789,7 @@
         <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2857,13 @@
         <v>10169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -2884,13 +2872,13 @@
         <v>29309</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -2899,13 +2887,13 @@
         <v>39479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2908,13 @@
         <v>5080</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -2935,13 +2923,13 @@
         <v>4957</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2950,13 +2938,13 @@
         <v>10036</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,7 +3000,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
